--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995966.0428601382</v>
+        <v>-998534.4662990846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854491</v>
+        <v>10116307.12854492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8126253390002</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C11" t="n">
         <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>82.58711466909293</v>
       </c>
       <c r="E11" t="n">
         <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369552</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>271.5318934593067</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
       </c>
       <c r="D13" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>84.40705829464923</v>
       </c>
       <c r="F13" t="n">
         <v>118.4998316984509</v>
@@ -1546,7 +1546,7 @@
         <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535776</v>
+        <v>69.43120408535779</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069616</v>
@@ -1582,7 +1582,7 @@
         <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>225.2164269993477</v>
@@ -1591,10 +1591,10 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>65.26113700175736</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>327.7618252962027</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H14" t="n">
-        <v>198.9339853831992</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844565</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>280.320491676967</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,22 +1768,22 @@
         <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8504650882803</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>105.7980440103193</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535779</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556702</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069616</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
@@ -1828,7 +1828,7 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1844,7 +1844,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D17" t="n">
         <v>280.7866886776101</v>
@@ -1859,7 +1859,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>179.050808281733</v>
+        <v>17.69588665034631</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510298</v>
+        <v>35.29140884510292</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>177.0988190158291</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555496</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513949</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5376097034963</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985838</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595535</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124791</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676524</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697447</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2894823809936</v>
+        <v>178.2894823809943</v>
       </c>
       <c r="T19" t="n">
         <v>145.6525963330963</v>
@@ -2090,13 +2090,13 @@
         <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>35.23395965329246</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965473</v>
+        <v>52.98729549544955</v>
       </c>
       <c r="U20" t="n">
         <v>177.0988190158291</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555496</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513949</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5376097034963</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985838</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595535</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124791</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676524</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.4526097195992</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2293,7 +2293,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.31548526254</v>
+        <v>274.7322952551654</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510299</v>
+        <v>35.29140884510292</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555496</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513949</v>
+        <v>137.135930067765</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9544196961211</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985838</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595535</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124791</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676524</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697447</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S25" t="n">
         <v>115.872672388369</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.64033639962</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,10 +3724,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.2977551524149</v>
@@ -3746,7 +3746,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231188</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210275</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3964,7 +3964,7 @@
         <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.011653098401</v>
+        <v>1621.969977654008</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.242283960495</v>
+        <v>1280.200608516101</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.16973315625</v>
+        <v>1196.779280567523</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.574628360511</v>
+        <v>838.1841757717837</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7818713734089</v>
+        <v>454.3914187846816</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9025690209108</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.268492685512</v>
+        <v>3016.170972015114</v>
       </c>
       <c r="V11" t="n">
-        <v>3099.268492685512</v>
+        <v>3016.170972015114</v>
       </c>
       <c r="W11" t="n">
-        <v>2773.692985217904</v>
+        <v>2690.595464547505</v>
       </c>
       <c r="X11" t="n">
-        <v>2499.418345360018</v>
+        <v>2344.32285408893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2499.418345360018</v>
+        <v>1981.376669915624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2616458242696</v>
+        <v>742.8778632776319</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5186106988681</v>
+        <v>601.1348281522303</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5951190890378</v>
+        <v>601.1348281522303</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8751733091501</v>
+        <v>515.8751733091502</v>
       </c>
       <c r="F13" t="n">
         <v>396.1783736137452</v>
@@ -5194,55 +5194,55 @@
         <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504665</v>
       </c>
       <c r="L13" t="n">
         <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.87327193841</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567741</v>
+        <v>1976.017845007709</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.807067939773</v>
+        <v>1781.44437737974</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.897348867922</v>
+        <v>1781.44437737974</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.40600846454</v>
+        <v>1553.953036976358</v>
       </c>
       <c r="W13" t="n">
-        <v>967.181986230085</v>
+        <v>1291.729014741903</v>
       </c>
       <c r="X13" t="n">
-        <v>901.2616458242696</v>
+        <v>1090.932611646391</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2616458242696</v>
+        <v>897.3331803053663</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1726.77326625095</v>
+        <v>1771.022647069326</v>
       </c>
       <c r="C14" t="n">
-        <v>1385.003897113044</v>
+        <v>1429.253277931419</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.931346308799</v>
+        <v>1098.180727127174</v>
       </c>
       <c r="E14" t="n">
-        <v>1053.931346308799</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="F14" t="n">
-        <v>670.1385893216966</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="G14" t="n">
-        <v>282.2592869691985</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020941</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.268492685512</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="V14" t="n">
-        <v>2795.398753144447</v>
+        <v>2759.853961584433</v>
       </c>
       <c r="W14" t="n">
-        <v>2795.398753144447</v>
+        <v>2476.701949789517</v>
       </c>
       <c r="X14" t="n">
-        <v>2449.126142685873</v>
+        <v>2130.429339330942</v>
       </c>
       <c r="Y14" t="n">
-        <v>2086.179958512566</v>
+        <v>2130.429339330942</v>
       </c>
     </row>
     <row r="15">
@@ -5346,28 +5346,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>813.7007054892949</v>
+        <v>645.4608805764491</v>
       </c>
       <c r="C16" t="n">
-        <v>671.9576703638934</v>
+        <v>503.7178454510477</v>
       </c>
       <c r="D16" t="n">
-        <v>549.0341787540631</v>
+        <v>503.7178454510477</v>
       </c>
       <c r="E16" t="n">
-        <v>428.3142329741753</v>
+        <v>503.7178454510477</v>
       </c>
       <c r="F16" t="n">
-        <v>308.6174332787704</v>
+        <v>384.0210457556431</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5361554118202</v>
+        <v>243.5113569328674</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5440,46 +5440,46 @@
         <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601979</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.87327193841</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.380535567741</v>
+        <v>1945.937113750408</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.47081649589</v>
+        <v>1684.027394678557</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.979476092509</v>
+        <v>1456.536054275176</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.755453858054</v>
+        <v>1194.31203204072</v>
       </c>
       <c r="X16" t="n">
-        <v>1161.755453858054</v>
+        <v>993.5156289452082</v>
       </c>
       <c r="Y16" t="n">
-        <v>968.1560225170292</v>
+        <v>799.9161976041835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.912701884256</v>
+        <v>1650.247668749455</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.912701884256</v>
+        <v>1355.927932559622</v>
       </c>
       <c r="D17" t="n">
-        <v>1235.289784028084</v>
+        <v>1072.305014703451</v>
       </c>
       <c r="E17" t="n">
-        <v>924.1443121804184</v>
+        <v>761.159542855785</v>
       </c>
       <c r="F17" t="n">
-        <v>587.8011881413895</v>
+        <v>424.8164188167564</v>
       </c>
       <c r="G17" t="n">
-        <v>247.3715187369643</v>
+        <v>84.38674941233121</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,7 +5513,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810562</v>
@@ -5522,7 +5522,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886844</v>
+        <v>3289.957933886845</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021645</v>
+        <v>3289.957933886845</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>3111.07023791126</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2854.650131318268</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.189289933533</v>
+        <v>2576.524256798732</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.366312423032</v>
+        <v>2277.701279288231</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869761197799</v>
+        <v>1962.204728062999</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877568</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104286</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486715</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168571</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695254</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G19" t="n">
-        <v>160.769418894823</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325942</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,7 +5692,7 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1912.106871596599</v>
@@ -5710,13 +5710,13 @@
         <v>1190.39085709419</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078079</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603693</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674178</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1554.560589606582</v>
+        <v>1632.373035769308</v>
       </c>
       <c r="C20" t="n">
-        <v>1260.240853416749</v>
+        <v>1338.053299579474</v>
       </c>
       <c r="D20" t="n">
-        <v>976.6179355605769</v>
+        <v>1054.430381723303</v>
       </c>
       <c r="E20" t="n">
-        <v>665.4724637129113</v>
+        <v>743.2849098756371</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772624</v>
+        <v>406.9417858366082</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728375</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5780,22 +5780,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.270854743971</v>
+        <v>3272.083300906697</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.383158768387</v>
+        <v>3093.195604931112</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.963052175395</v>
+        <v>2836.77549833812</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.837177655859</v>
+        <v>2558.649623818585</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.014200145358</v>
+        <v>2259.826646308084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1866.517648920125</v>
+        <v>1944.330095082851</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,25 +5817,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,19 +5844,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877568</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104286</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486715</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168571</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695254</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G22" t="n">
-        <v>160.769418894823</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325942</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,16 +5929,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.059588775766</v>
+        <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.016485353171</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.892650673276</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
         <v>1370.432564549498</v>
@@ -5947,13 +5947,13 @@
         <v>1190.39085709419</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6164678078079</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2696976603693</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674178</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073751</v>
+        <v>1862.179185073752</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883918</v>
+        <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027746</v>
+        <v>1284.236531027748</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800805</v>
+        <v>973.0910591800821</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410516</v>
+        <v>636.7479351410529</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366274</v>
+        <v>296.3182657366275</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2565770549987</v>
+        <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448452</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642068665178</v>
+        <v>1580.642068665179</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.822039249667</v>
+        <v>2127.420885723961</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129004</v>
+        <v>2630.393356603298</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3343.748444050244</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241864</v>
+        <v>3609.855238241865</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798666</v>
+        <v>3668.872304798667</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.22441707634</v>
+        <v>3633.224417076342</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211141</v>
+        <v>3501.889450211142</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235556</v>
+        <v>3323.001754235557</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642564</v>
+        <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123028</v>
+        <v>2788.45577312303</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612527</v>
+        <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387294</v>
+        <v>2174.136244387295</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865906</v>
+        <v>167.0547155865907</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669385</v>
+        <v>405.3189145669378</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796038</v>
+        <v>772.0170748796032</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.29340010192</v>
+        <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816443656374</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723799</v>
+        <v>639.0268276723804</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950516</v>
+        <v>544.7334254950522</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2595668332946</v>
+        <v>406.2122840124613</v>
       </c>
       <c r="E25" t="n">
-        <v>332.941971180647</v>
+        <v>332.9419711806469</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333153</v>
+        <v>260.6948044333152</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586129</v>
+        <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704933</v>
+        <v>96.06034252704931</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917851</v>
+        <v>322.4872614917853</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041055398303</v>
+        <v>983.2041055398304</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612482245695</v>
@@ -6166,7 +6166,7 @@
         <v>1856.549581599768</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159877752282</v>
+        <v>1934.159877752283</v>
       </c>
       <c r="R25" t="n">
         <v>1918.972201260389</v>
@@ -6187,10 +6187,10 @@
         <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449924</v>
+        <v>892.1823101449928</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520409</v>
+        <v>746.0325117520414</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835342</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1045.699547878785</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127194</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799118</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913841</v>
@@ -6610,19 +6610,19 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,40 +6841,40 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
         <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659142</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094416</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7175,28 +7175,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
@@ -7333,40 +7333,40 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398486</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
@@ -7570,22 +7570,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.97243057225</v>
@@ -7597,10 +7597,10 @@
         <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386254</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>698.9037015467786</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,31 +7646,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524676</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O44" t="n">
-        <v>3015.155006854131</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3728.510094301076</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3976.796456056758</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7679,10 +7679,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
@@ -7807,49 +7807,49 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764222</v>
+        <v>212.1614152764236</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188427</v>
+        <v>225.9304893188445</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603968</v>
+        <v>219.4018707603987</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030222</v>
+        <v>218.2916099030242</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661474</v>
+        <v>219.5965380661493</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111167</v>
+        <v>222.2700605111183</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.686900335729</v>
+        <v>123.6869003357296</v>
       </c>
       <c r="K6" t="n">
-        <v>132.45634583448</v>
+        <v>132.456345834481</v>
       </c>
       <c r="L6" t="n">
-        <v>131.313457491537</v>
+        <v>131.3134574915383</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437689</v>
+        <v>133.6842191437704</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511122</v>
+        <v>122.6682558511138</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891788</v>
+        <v>134.6617264891802</v>
       </c>
       <c r="P6" t="n">
-        <v>127.60625723577</v>
+        <v>127.6062572357712</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.72483433691</v>
+        <v>135.7248343369108</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970304</v>
+        <v>130.7280129970312</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216055</v>
+        <v>134.5431653216063</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145256</v>
+        <v>123.4071347145264</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663797</v>
+        <v>134.5047345663804</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299167</v>
+        <v>134.3465531299173</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>339.7991449754612</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>18.00043680397826</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>343.548528596632</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544156</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544153</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>12.68816924374491</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544146</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>287.0017854473905</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>21.74982042514783</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24040888277509</v>
+        <v>15.2404088827751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>245.1747106271098</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844565</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369551</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>176.9967538151398</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>71.27799089468198</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910763857457</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>35.10568802743964</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01093634556703</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>133.5273020627995</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>68.75256267964093</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369552</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>41.99926071596571</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.25412684626761</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.03575457952118</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535779</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556702</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279347</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>41.66060316251458</v>
+        <v>203.0155247939012</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>297.7457331453461</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510299</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>77.0343217010977</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1271048.447311257</v>
+        <v>1271048.447311258</v>
       </c>
     </row>
     <row r="4">
@@ -26317,13 +26317,13 @@
         <v>245784.3900228522</v>
       </c>
       <c r="D2" t="n">
-        <v>245786.2636561406</v>
+        <v>245786.2636561405</v>
       </c>
       <c r="E2" t="n">
         <v>218862.5670758515</v>
       </c>
       <c r="F2" t="n">
-        <v>218862.5670758516</v>
+        <v>218862.5670758515</v>
       </c>
       <c r="G2" t="n">
         <v>238359.604008553</v>
@@ -26332,28 +26332,28 @@
         <v>238359.604008553</v>
       </c>
       <c r="I2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="J2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="K2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="M2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592849</v>
       </c>
-      <c r="L2" t="n">
-        <v>246312.5309592849</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>246312.5309592846</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.5309592847</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592847</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592849</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945595</v>
+        <v>14118.1985994534</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072053</v>
+        <v>16714.64353072294</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.1092948739</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905848</v>
+        <v>22820.44161905851</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728124</v>
+        <v>25410.44272728104</v>
       </c>
       <c r="K3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200262</v>
+        <v>426739.154320027</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210904</v>
+        <v>37585.467102109</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.467102109</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521034</v>
+        <v>74613.22686521037</v>
       </c>
       <c r="H4" t="n">
         <v>74613.22686521037</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.0036591391</v>
+        <v>85473.00365913911</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646589</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646602</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646589</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112998</v>
+        <v>33965.59259112991</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
@@ -26479,19 +26479,19 @@
         <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657602</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.73305696448</v>
+        <v>80518.7330569645</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.73305696448</v>
+        <v>80518.7330569645</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144482</v>
+        <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218743.2078275643</v>
+        <v>-218747.6214054325</v>
       </c>
       <c r="C6" t="n">
-        <v>-229038.55548776</v>
+        <v>-229042.9566622284</v>
       </c>
       <c r="D6" t="n">
-        <v>-226914.4345981299</v>
+        <v>-226918.8201589919</v>
       </c>
       <c r="E6" t="n">
-        <v>-1012461.321794754</v>
+        <v>-1012690.071493782</v>
       </c>
       <c r="F6" t="n">
-        <v>104707.5196771667</v>
+        <v>104478.7699781377</v>
       </c>
       <c r="G6" t="n">
-        <v>45647.53479150416</v>
+        <v>45581.26040024814</v>
       </c>
       <c r="H6" t="n">
-        <v>83227.64408637815</v>
+        <v>83161.369695122</v>
       </c>
       <c r="I6" t="n">
-        <v>52282.70207964255</v>
+        <v>52282.70207964233</v>
       </c>
       <c r="J6" t="n">
-        <v>50768.7829507315</v>
+        <v>50768.78295073184</v>
       </c>
       <c r="K6" t="n">
-        <v>76179.22567801274</v>
+        <v>76179.22567801271</v>
       </c>
       <c r="L6" t="n">
-        <v>38599.11638313872</v>
+        <v>38599.11638313869</v>
       </c>
       <c r="M6" t="n">
-        <v>-131009.3426140603</v>
+        <v>-131009.3426140604</v>
       </c>
       <c r="N6" t="n">
-        <v>76179.22567801266</v>
+        <v>76179.22567801282</v>
       </c>
       <c r="O6" t="n">
-        <v>76179.2256780126</v>
+        <v>76179.22567801253</v>
       </c>
       <c r="P6" t="n">
-        <v>76179.22567801278</v>
+        <v>76179.22567801282</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859265</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859265</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729954026</v>
+        <v>15.50424729953744</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996668</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729954026</v>
+        <v>15.50424729953744</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958507</v>
+        <v>19.51701341958788</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737396</v>
+        <v>85.81662079737407</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894817</v>
+        <v>97.1183850089476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096107</v>
+        <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713485</v>
+        <v>208.072964971349</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851292</v>
+        <v>6.65922459385225</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783086</v>
+        <v>3.259908116784305</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886683</v>
+        <v>145.953866988669</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763427</v>
+        <v>207.599755876343</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759756</v>
+        <v>222.8230059759757</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27710,10 +27710,10 @@
         <v>137.3101684048682</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9133654388211</v>
+        <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234535</v>
+        <v>88.24844095234556</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573472</v>
+        <v>98.08728580573509</v>
       </c>
       <c r="S6" t="n">
-        <v>171.063732544276</v>
+        <v>171.0637325442761</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837154</v>
+        <v>225.9391880837155</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.6096872212439</v>
+        <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997565</v>
+        <v>91.38251566997602</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263491</v>
+        <v>19.0212249326355</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.8209019094638</v>
+        <v>83.82090190946423</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059641</v>
+        <v>176.0362765059644</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029851</v>
+        <v>223.5293580029852</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.9212163244803</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S19" t="n">
-        <v>11.47954295044826</v>
+        <v>11.47954295044758</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.47954295044815</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307287</v>
+        <v>11.47954295044752</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307287</v>
+        <v>11.47954295044738</v>
       </c>
       <c r="E25" t="n">
-        <v>11.47954295044806</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859074</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859074</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235996078</v>
+        <v>0.06232863235994948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061564485</v>
+        <v>0.6383231061563328</v>
       </c>
       <c r="I5" t="n">
-        <v>2.40292459905739</v>
+        <v>2.402924599056955</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760761226</v>
+        <v>5.290064760760267</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768558368</v>
+        <v>7.92843576855693</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651144519</v>
+        <v>9.835925651142736</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687597</v>
+        <v>10.94436246687399</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356871</v>
+        <v>11.12145369356669</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553935</v>
+        <v>10.50167335553745</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152817</v>
+        <v>8.962935244151192</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761719</v>
+        <v>6.730791097760499</v>
       </c>
       <c r="R5" t="n">
-        <v>3.91525095248139</v>
+        <v>3.91525095248068</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902608</v>
+        <v>1.42031370990235</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557285</v>
+        <v>0.272843588155679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796861</v>
+        <v>0.004986290588795957</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240734</v>
+        <v>0.0333487583424013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753552</v>
+        <v>0.3220787976752968</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069727</v>
+        <v>1.148191899069519</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937704</v>
+        <v>3.150726330937133</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878997</v>
+        <v>5.385093139878021</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288337174</v>
+        <v>7.240922288335861</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778249438</v>
+        <v>8.449814778247907</v>
       </c>
       <c r="N6" t="n">
-        <v>8.67345623222111</v>
+        <v>8.673456232219538</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955265663</v>
+        <v>7.934517955264225</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178560223</v>
+        <v>6.36815017855907</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111506</v>
+        <v>4.256939749110734</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908414</v>
+        <v>2.070548346908039</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595618201</v>
+        <v>0.6194385595617079</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573348</v>
+        <v>0.1344188987573104</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368905</v>
+        <v>0.002193997259368507</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687587</v>
+        <v>0.0279584787368708</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696784</v>
+        <v>0.2485762927696333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060144127</v>
+        <v>0.8407877060142603</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446697124</v>
+        <v>1.976664446696765</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247941</v>
+        <v>3.248266893247352</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207891</v>
+        <v>4.156663284207138</v>
       </c>
       <c r="M7" t="n">
-        <v>4.38261862599955</v>
+        <v>4.382618625998756</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707562</v>
+        <v>4.278409750706786</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885463147</v>
+        <v>3.95180388546243</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230876</v>
+        <v>3.381450919230264</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230578</v>
+        <v>2.341141342230154</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205345</v>
+        <v>1.257114871205118</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871911</v>
+        <v>0.4872400339871027</v>
       </c>
       <c r="T7" t="n">
-        <v>0.119458954603015</v>
+        <v>0.1194589546029934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102322</v>
+        <v>0.001525007931102045</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,10 +32309,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,28 +32321,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754652</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
         <v>374.5545957179642</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754652</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687998</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179641</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920203</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.27434654712</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695907</v>
+        <v>261.8782874695908</v>
       </c>
       <c r="Q16" t="n">
         <v>105.315454862374</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,19 +35969,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>892.1009803883725</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>268.7947416076977</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609575</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>895.8503640095432</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>614.4119707098157</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737872</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597774</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737872</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>263.4824740474644</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120745</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776173</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>92.55355323165884</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629108</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120745</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>81.36301896737255</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
